--- a/pdfs/Nguyen Q&A.xlsx
+++ b/pdfs/Nguyen Q&A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sphillips55\Dropbox (GSU Dropbox)\TOPS\2022-07-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sphillips55\Dropbox (GSU Dropbox)\TOPS\Website\test_website_tops\pdfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E260EEC8-6BB2-453F-ADFC-C644B7B9F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF26B17-BBB3-4DA9-8BB8-CB2ABDFF1564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nguyen Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Question Report</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Asker Name</t>
-  </si>
-  <si>
-    <t>Asker Email</t>
-  </si>
-  <si>
     <t>Answer</t>
   </si>
   <si>
@@ -76,24 +70,12 @@
     <t>On youth use, did you consider the effect of curiosity caused by exaggerated alarmist anti-e-cig  "warning" campaigns (mainly from the US)?</t>
   </si>
   <si>
-    <t>Norbert Zillatron Schmidt</t>
-  </si>
-  <si>
-    <t>norbert.schmidt@posteo.de</t>
-  </si>
-  <si>
     <t>live answered</t>
   </si>
   <si>
     <t>Does slide 11 represents prevalance or incidence? What age are included in slide??</t>
   </si>
   <si>
-    <t>Adriana PEREZ</t>
-  </si>
-  <si>
-    <t>adriana.perez@uth.tmc.edu</t>
-  </si>
-  <si>
     <t>What are the sample sizes on Slide 11?</t>
   </si>
   <si>
@@ -103,55 +85,25 @@
     <t>When survey participants self-report depression or anxiety, are they asked if they have a clinical diagnosis?</t>
   </si>
   <si>
-    <t>Skip Murray</t>
-  </si>
-  <si>
-    <t>mnsmokefree@gmail.com</t>
-  </si>
-  <si>
     <t>How did you make sure that multiple people in multiploe visits are not counted more than once?</t>
   </si>
   <si>
     <t>What is the data source used for real cigarette prices? Does it include the effect of contraband, which is likely to be substantially larger in Ontario/Québec than in Alberta/Sask?</t>
   </si>
   <si>
-    <t>Francis Thompson</t>
-  </si>
-  <si>
-    <t>francis.thompson@hc-sc.gc.ca</t>
-  </si>
-  <si>
     <t>As an anti-test it would be useful to see if you ran the analysis on 21-24 year olds whether the results would be the same - where the laws should not have an impact.  Not sure you have this data</t>
   </si>
   <si>
-    <t>alan mathios</t>
-  </si>
-  <si>
-    <t>adm5@cornell.edu</t>
-  </si>
-  <si>
     <t>Is there comparable mental health information available for young people using other forms of nicotine, such as smoking?</t>
   </si>
   <si>
     <t>I am confused about the *s indicating statistical significance when the coefficients are smaller than the standard errors.</t>
   </si>
   <si>
-    <t>Don Kenkel</t>
-  </si>
-  <si>
-    <t>dsk10@cornell.edu</t>
-  </si>
-  <si>
     <t>Never mind, I see that the numbers in parenthesis are p values, not standard errors.</t>
   </si>
   <si>
     <t>thank you for the presentation Mr. Nguyen. Can the findings of this study be comparative given the variations in sapmle sizes?</t>
-  </si>
-  <si>
-    <t>Sabila Nelson</t>
-  </si>
-  <si>
-    <t>sabila840@gmail.com</t>
   </si>
   <si>
     <t>sample</t>
@@ -160,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,11 +953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,12 +971,12 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +984,7 @@
         <v>44743.570138888892</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1066,12 +1018,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1087,273 +1039,189 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
         <v>44743.508437500001</v>
       </c>
-      <c r="G7" s="1">
+      <c r="E7" s="1">
         <v>44743.521539351852</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
         <v>44743.511030092595</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
         <v>44743.511319444442</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
         <v>44743.511956018519</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
         <v>44743.51798611111</v>
       </c>
-      <c r="G11" s="1">
+      <c r="E11" s="1">
         <v>44743.531539351854</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="1">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1">
         <v>44743.519317129627</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
         <v>44743.520474537036</v>
       </c>
-      <c r="G13" s="1">
+      <c r="E13" s="1">
         <v>44743.541863425926</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
         <v>44743.522256944445</v>
       </c>
-      <c r="G14" s="1">
+      <c r="E14" s="1">
         <v>44743.531793981485</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
         <v>44743.522615740738</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
         <v>44743.527974537035</v>
       </c>
-      <c r="G16" s="1">
+      <c r="E16" s="1">
         <v>44743.530972222223</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="1">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
         <v>44743.531192129631</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
         <v>44743.539837962962</v>
       </c>
-      <c r="G18" s="1">
+      <c r="E18" s="1">
         <v>44743.54105324074</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
         <v>44743.540011574078</v>
       </c>
-      <c r="G19" s="1">
+      <c r="E19" s="1">
         <v>44743.541087962964</v>
       </c>
     </row>
